--- a/spliced/falling/2023-03-25_18-00-41/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-00-41/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.2409510612487792</v>
+        <v>-0.2734694480895995</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1118493080139161</v>
+        <v>0.2277572751045226</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.9796984493732455</v>
+        <v>-0.1111783366650344</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.2510995864868166</v>
+        <v>-0.2649335861206055</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.486978173255921</v>
+        <v>0.1057968139648434</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.576653569936753</v>
+        <v>-0.4681921228766454</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.6032696366310117</v>
+        <v>-0.2409510612487792</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.231355071067809</v>
+        <v>-0.1118493080139161</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.578479379415512</v>
+        <v>-0.9796984493732455</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.619264602661135</v>
+        <v>-0.2510995864868166</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.441695690155029</v>
+        <v>-0.486978173255921</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.719687700271603</v>
+        <v>-1.576653569936753</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-2.381728231906894</v>
+        <v>-0.6032696366310117</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.565002083778382</v>
+        <v>-1.231355071067809</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.358269900083537</v>
+        <v>-2.578479379415512</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-5.973035097122198</v>
+        <v>-1.619264602661135</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.110213756561278</v>
+        <v>-2.441695690155029</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.457903444766998</v>
+        <v>-3.719687700271603</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-6.563721001148222</v>
+        <v>-2.381728231906894</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.09978815913199934</v>
+        <v>-2.565002083778382</v>
       </c>
       <c r="C8" t="n">
-        <v>4.150949925184262</v>
+        <v>-2.358269900083537</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-5.282882690429686</v>
+        <v>-5.973035097122198</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.261756420135502</v>
+        <v>-2.110213756561278</v>
       </c>
       <c r="C9" t="n">
-        <v>2.734083533287039</v>
+        <v>-1.457903444766998</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8.164603590965351</v>
+        <v>-6.563721001148222</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.793649584054942</v>
+        <v>-0.09978815913199934</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.379950404167178</v>
+        <v>4.150949925184262</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>21.43860530853263</v>
+        <v>-5.282882690429686</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.050572410225862</v>
+        <v>-1.261756420135502</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.420871347188941</v>
+        <v>2.734083533287039</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.062002182006829</v>
+        <v>8.164603590965351</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4258993379771697</v>
+        <v>-2.793649584054942</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.4806351810693823</v>
+        <v>-2.379950404167178</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.4846687316894513</v>
+        <v>21.43860530853263</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1213221848010993</v>
+        <v>-1.050572410225862</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.595732927322378</v>
+        <v>-2.420871347188941</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.08941352367401095</v>
+        <v>-1.062002182006829</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.3872085474431518</v>
+        <v>0.4258993379771697</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.3984570652246462</v>
+        <v>-0.4806351810693823</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.08465456962585466</v>
+        <v>0.4846687316894513</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.3168411925435065</v>
+        <v>0.1213221848010993</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.5556480586528784</v>
+        <v>-2.595732927322378</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.01035583019256567</v>
+        <v>0.08941352367401095</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.3797534666955474</v>
+        <v>-0.3872085474431518</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1080728322267551</v>
+        <v>-0.3984570652246462</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.1875557899475107</v>
+        <v>-0.08465456962585466</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1313613653183006</v>
+        <v>-0.3168411925435065</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1621772050857527</v>
+        <v>-0.5556480586528784</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.3808972835540768</v>
+        <v>-0.01035583019256567</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5183635354042041</v>
+        <v>-0.3797534666955474</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1794230192899697</v>
+        <v>0.1080728322267551</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.1947205066680908</v>
+        <v>-0.1875557899475107</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2465647608041763</v>
+        <v>0.1313613653183006</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0424161478877067</v>
+        <v>0.1621772050857527</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.09789943695068341</v>
+        <v>-0.3808972835540768</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3452561050653447</v>
+        <v>0.5183635354042041</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.131537172943354</v>
+        <v>-0.1794230192899697</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.05506801605224545</v>
+        <v>-0.1947205066680908</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07766664028167738</v>
+        <v>0.2465647608041763</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.2464380264282224</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.06795549392700258</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.1180151626467706</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.2082828953862188</v>
+        <v>-0.0424161478877067</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-00-41/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-00-41/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.2734694480895995</v>
+        <v>-0.01334476470947288</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2277572751045226</v>
+        <v>0.1471533775329589</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1111783366650344</v>
+        <v>-0.2691573500633239</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.2649335861206055</v>
+        <v>-0.2625431418418885</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1057968139648434</v>
+        <v>0.13736093044281</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.4681921228766454</v>
+        <v>-0.1842701695859431</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.2409510612487792</v>
+        <v>-0.3044750690460205</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1118493080139161</v>
+        <v>0.2236802577972413</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.9796984493732455</v>
+        <v>-0.08151795715093602</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.2510995864868166</v>
+        <v>-0.2734694480895995</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.486978173255921</v>
+        <v>0.2277572751045226</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.576653569936753</v>
+        <v>-0.1111783366650344</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.6032696366310117</v>
+        <v>-0.2649335861206055</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.231355071067809</v>
+        <v>0.1057968139648434</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.578479379415512</v>
+        <v>-0.4681921228766454</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.619264602661135</v>
+        <v>-0.2409510612487792</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.441695690155029</v>
+        <v>-0.1118493080139161</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.719687700271603</v>
+        <v>-0.9796984493732455</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2.381728231906894</v>
+        <v>-0.2510995864868166</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.565002083778382</v>
+        <v>-0.486978173255921</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.358269900083537</v>
+        <v>-1.576653569936753</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-5.973035097122198</v>
+        <v>-0.6032696366310117</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.110213756561278</v>
+        <v>-1.231355071067809</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.457903444766998</v>
+        <v>-2.578479379415512</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-6.563721001148222</v>
+        <v>-1.619264602661135</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.09978815913199934</v>
+        <v>-2.441695690155029</v>
       </c>
       <c r="C10" t="n">
-        <v>4.150949925184262</v>
+        <v>-3.719687700271603</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-5.282882690429686</v>
+        <v>-2.381728231906894</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.261756420135502</v>
+        <v>-2.565002083778382</v>
       </c>
       <c r="C11" t="n">
-        <v>2.734083533287039</v>
+        <v>-2.358269900083537</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8.164603590965351</v>
+        <v>-5.973035097122198</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.793649584054942</v>
+        <v>-2.110213756561278</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.379950404167178</v>
+        <v>-1.457903444766998</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>21.43860530853263</v>
+        <v>-6.563721001148222</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.050572410225862</v>
+        <v>-0.09978815913199934</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.420871347188941</v>
+        <v>4.150949925184262</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.062002182006829</v>
+        <v>-5.282882690429686</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4258993379771697</v>
+        <v>-1.261756420135502</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.4806351810693823</v>
+        <v>2.734083533287039</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.4846687316894513</v>
+        <v>8.164603590965351</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1213221848010993</v>
+        <v>-2.793649584054942</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.595732927322378</v>
+        <v>-2.379950404167178</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.08941352367401095</v>
+        <v>21.43860530853263</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.3872085474431518</v>
+        <v>-1.050572410225862</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.3984570652246462</v>
+        <v>-2.420871347188941</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.08465456962585466</v>
+        <v>-1.062002182006829</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.3168411925435065</v>
+        <v>0.4258993379771697</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.5556480586528784</v>
+        <v>-0.4806351810693823</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.01035583019256567</v>
+        <v>0.4846687316894513</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.3797534666955474</v>
+        <v>0.1213221848010993</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1080728322267551</v>
+        <v>-2.595732927322378</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.1875557899475107</v>
+        <v>0.08941352367401095</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1313613653183006</v>
+        <v>-0.3872085474431518</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1621772050857527</v>
+        <v>-0.3984570652246462</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.3808972835540768</v>
+        <v>-0.08465456962585466</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5183635354042041</v>
+        <v>-0.3168411925435065</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1794230192899697</v>
+        <v>-0.5556480586528784</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-0.01035583019256567</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.3797534666955474</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1080728322267551</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.1875557899475107</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1313613653183006</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1621772050857527</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.3808972835540768</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5183635354042041</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.1794230192899697</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>-0.1947205066680908</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B24" t="n">
         <v>0.2465647608041763</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>-0.0424161478877067</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.09789943695068341</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.3452561050653447</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.131537172943354</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.05506801605224545</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.07766664028167738</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.2464380264282224</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.06795549392700258</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1180151626467706</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.2082828953862188</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.01404476165771439</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.2834141030907641</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.1360972765833135</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.01649236679077155</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.2205449156463143</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.119759158231318</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.003359794616699139</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1425043791532516</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.1422623544931412</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.02320241928100578</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1721755955368283</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.1290906090289352</v>
       </c>
     </row>
   </sheetData>
